--- a/Plotting/production_shares_olefins_Scope1-2.xlsx
+++ b/Plotting/production_shares_olefins_Scope1-2.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,10 +571,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1214460.186277205</v>
+        <v>3643380.558831645</v>
       </c>
       <c r="D8" t="n">
-        <v>1451961.130207406</v>
+        <v>5807844.520829624</v>
       </c>
     </row>
     <row r="9">
@@ -584,13 +584,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1717309.999999998</v>
+        <v>8586549.999999989</v>
       </c>
       <c r="C9" t="n">
-        <v>337516.1544957313</v>
+        <v>957437.243744852</v>
       </c>
       <c r="D9" t="n">
-        <v>192523.2556365379</v>
+        <v>2249164.886954993</v>
       </c>
     </row>
     <row r="10">
@@ -603,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>165333.6592270256</v>
+        <v>1680220.114095789</v>
       </c>
       <c r="D10" t="n">
-        <v>72825.61415605545</v>
+        <v>986796.9397839492</v>
       </c>
     </row>
     <row r="11">
@@ -638,6 +638,70 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Electrification + Bio-based feedstock</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Conventional + Bio-based feedstock</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Conventional + Bio-based feedstock with CC</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Electrification + Bio-based</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Plotting/production_shares_olefins_Scope1-2.xlsx
+++ b/Plotting/production_shares_olefins_Scope1-2.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1718092.730173201</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1018316.841604383</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1046311.473444922</v>
       </c>
     </row>
     <row r="7">
@@ -571,10 +571,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3643380.558831645</v>
+        <v>699204.36485165</v>
       </c>
       <c r="D8" t="n">
-        <v>5807844.520829624</v>
+        <v>671215.5393051291</v>
       </c>
     </row>
     <row r="9">
@@ -584,13 +584,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8586549.999999989</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>957437.243744852</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2249164.886954993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -603,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1680220.114095789</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>986796.9397839492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">

--- a/Plotting/production_shares_olefins_Scope1-2.xlsx
+++ b/Plotting/production_shares_olefins_Scope1-2.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,20 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -496,6 +510,36 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -504,12 +548,30 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1718092.730173201</v>
+        <v>1718092.7301732</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -528,6 +590,24 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -539,10 +619,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1018316.841604383</v>
+        <v>1017699.869006407</v>
       </c>
       <c r="D6" t="n">
-        <v>1046311.473444922</v>
+        <v>1052661.907550473</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1717666.256704808</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1291022.02527089</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1699538.147168455</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1717666.256704669</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1291141.465709535</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1700960.080555822</v>
       </c>
     </row>
     <row r="7">
@@ -560,6 +658,24 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -571,10 +687,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>699204.36485165</v>
+        <v>699821.2094849477</v>
       </c>
       <c r="D8" t="n">
-        <v>671215.5393051291</v>
+        <v>664866.4223266498</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>426555.742260271</v>
+      </c>
+      <c r="G8" t="n">
+        <v>18124.34963239434</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1.909185926037406e-08</v>
+      </c>
+      <c r="I8" t="n">
+        <v>426436.3265944614</v>
+      </c>
+      <c r="J8" t="n">
+        <v>16702.71116469113</v>
       </c>
     </row>
     <row r="9">
@@ -592,6 +726,24 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -608,6 +760,24 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -624,6 +794,24 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -640,6 +828,24 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -656,6 +862,24 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -672,6 +896,24 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -688,6 +930,24 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -704,10 +964,30 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Plotting/production_shares_olefins_Scope1-2.xlsx
+++ b/Plotting/production_shares_olefins_Scope1-2.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,13 @@
       </c>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -540,6 +547,21 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -574,6 +596,15 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -608,6 +639,15 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -625,22 +665,31 @@
         <v>1052661.907550473</v>
       </c>
       <c r="E6" t="n">
-        <v>1717666.256704808</v>
+        <v>1717666.256705084</v>
       </c>
       <c r="F6" t="n">
-        <v>1291022.02527089</v>
+        <v>1291202.896779111</v>
       </c>
       <c r="G6" t="n">
-        <v>1699538.147168455</v>
+        <v>1714830.272471079</v>
       </c>
       <c r="H6" t="n">
-        <v>1717666.256704669</v>
+        <v>1717666.256705097</v>
       </c>
       <c r="I6" t="n">
-        <v>1291141.465709535</v>
+        <v>1290346.75326915</v>
       </c>
       <c r="J6" t="n">
-        <v>1700960.080555822</v>
+        <v>1698077.064036473</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1717666.256705082</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1291233.819577181</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1698285.997250964</v>
       </c>
     </row>
     <row r="7">
@@ -676,6 +725,15 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -696,19 +754,28 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>426555.742260271</v>
+        <v>426374.9082661472</v>
       </c>
       <c r="G8" t="n">
-        <v>18124.34963239434</v>
+        <v>2835.396029873991</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.909185926037406e-08</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>426436.3265944614</v>
+        <v>427230.8742055938</v>
       </c>
       <c r="J8" t="n">
-        <v>16702.71116469113</v>
+        <v>19585.12972495666</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>426343.9918816964</v>
+      </c>
+      <c r="M8" t="n">
+        <v>19376.23984474674</v>
       </c>
     </row>
     <row r="9">
@@ -744,6 +811,15 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -778,6 +854,15 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -812,6 +897,15 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -846,6 +940,15 @@
       <c r="J12" t="n">
         <v>0</v>
       </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -880,6 +983,15 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -914,6 +1026,15 @@
       <c r="J14" t="n">
         <v>0</v>
       </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -948,6 +1069,15 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -982,12 +1112,22 @@
       <c r="J16" t="n">
         <v>0</v>
       </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
